--- a/Result_Files_Key_Word_Attempt_2/Key_word_set_4_algorithm_input_03.10.2018.xlsx
+++ b/Result_Files_Key_Word_Attempt_2/Key_word_set_4_algorithm_input_03.10.2018.xlsx
@@ -16,256 +16,256 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
+    <t>pursuant</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>prejudic</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>servic</t>
+  </si>
+  <si>
+    <t>pretrial</t>
+  </si>
+  <si>
+    <t>instruct</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
     <t>exhibit</t>
   </si>
   <si>
-    <t>final</t>
+    <t>respons</t>
+  </si>
+  <si>
+    <t>compani</t>
+  </si>
+  <si>
+    <t>vacat</t>
+  </si>
+  <si>
+    <t>amend</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>herebi</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>pleas</t>
+  </si>
+  <si>
+    <t>approv</t>
+  </si>
+  <si>
+    <t>affirm</t>
+  </si>
+  <si>
+    <t>jurisdict</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>extens</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>juri</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>baverman</t>
+  </si>
+  <si>
+    <t>discoveri</t>
+  </si>
+  <si>
+    <t>repli</t>
+  </si>
+  <si>
+    <t>copi</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>jone</t>
+  </si>
+  <si>
+    <t>leav</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>corpor</t>
+  </si>
+  <si>
+    <t>neddal</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>defens</t>
+  </si>
+  <si>
+    <t>declar</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>joint</t>
-  </si>
-  <si>
-    <t>adopt</t>
-  </si>
-  <si>
-    <t>respons</t>
-  </si>
-  <si>
-    <t>jurisdict</t>
+    <t>includ</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>appeal</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>certif</t>
+  </si>
+  <si>
+    <t>deadlin</t>
+  </si>
+  <si>
+    <t>disclosur</t>
+  </si>
+  <si>
+    <t>hawk</t>
   </si>
   <si>
     <t>entri</t>
   </si>
   <si>
-    <t>herebi</t>
-  </si>
-  <si>
-    <t>number</t>
+    <t>northsid</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>associ</t>
   </si>
   <si>
     <t>issu</t>
   </si>
   <si>
-    <t>vacat</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>northsid</t>
+    <t>within</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>websit</t>
+  </si>
+  <si>
+    <t>without</t>
   </si>
   <si>
     <t>summari</t>
   </si>
   <si>
-    <t>approv</t>
-  </si>
-  <si>
-    <t>leav</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>amend</t>
-  </si>
-  <si>
-    <t>corpor</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>shall</t>
+  </si>
+  <si>
+    <t>administr</t>
+  </si>
+  <si>
+    <t>proceed</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>stipul</t>
+  </si>
+  <si>
+    <t>docket</t>
+  </si>
+  <si>
+    <t>request</t>
   </si>
   <si>
     <t>answer</t>
   </si>
   <si>
-    <t>fee</t>
-  </si>
-  <si>
-    <t>pretrial</t>
-  </si>
-  <si>
-    <t>pursuant</t>
-  </si>
-  <si>
-    <t>baverman</t>
-  </si>
-  <si>
-    <t>jone</t>
-  </si>
-  <si>
-    <t>stipul</t>
-  </si>
-  <si>
-    <t>hawk</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>declar</t>
-  </si>
-  <si>
-    <t>certif</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>juri</t>
-  </si>
-  <si>
     <t>notic</t>
   </si>
   <si>
-    <t>associ</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t>includ</t>
-  </si>
-  <si>
-    <t>shall</t>
+    <t>bahhur</t>
   </si>
   <si>
     <t>damag</t>
-  </si>
-  <si>
-    <t>discoveri</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>disclosur</t>
-  </si>
-  <si>
-    <t>civil</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>instruct</t>
-  </si>
-  <si>
-    <t>document</t>
-  </si>
-  <si>
-    <t>supplement</t>
-  </si>
-  <si>
-    <t>servic</t>
-  </si>
-  <si>
-    <t>pleas</t>
-  </si>
-  <si>
-    <t>neddal</t>
-  </si>
-  <si>
-    <t>copi</t>
-  </si>
-  <si>
-    <t>proceed</t>
-  </si>
-  <si>
-    <t>defens</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>affirm</t>
-  </si>
-  <si>
-    <t>prejudic</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>brief</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>compani</t>
-  </si>
-  <si>
-    <t>websit</t>
-  </si>
-  <si>
-    <t>administr</t>
-  </si>
-  <si>
-    <t>deadlin</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>appeal</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>repli</t>
-  </si>
-  <si>
-    <t>docket</t>
-  </si>
-  <si>
-    <t>extens</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>bahhur</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>without</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>partial</t>
   </si>
 </sst>
 </file>
